--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/99.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/99.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1436767696626434</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.790541424089321</v>
+        <v>-1.793497099688842</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1173667688693827</v>
+        <v>-0.1129155677704754</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03760553620282436</v>
+        <v>0.04036481734443257</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1443782927643618</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.717744951636733</v>
+        <v>-1.7132498362491</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1715002785341566</v>
+        <v>-0.1813620859564959</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01651447920087652</v>
+        <v>0.02182627837467535</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1587489697466394</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.717630896470181</v>
+        <v>-1.701158768753246</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2693181368296566</v>
+        <v>-0.2819483742037554</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04753626466163624</v>
+        <v>0.05578971125939096</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1833079904481801</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.743281720451497</v>
+        <v>-1.723698387362471</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3240829143948648</v>
+        <v>-0.33703640972764</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08658643599043064</v>
+        <v>0.09358466583543787</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2091000415413738</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.714214730759715</v>
+        <v>-1.70913104191902</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3954100879371664</v>
+        <v>-0.4084245753376164</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1287685499943263</v>
+        <v>0.1403722908694581</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2271457458156694</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.594181121734344</v>
+        <v>-1.595335091654751</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3950423057690873</v>
+        <v>-0.4193256875931345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1292284301845944</v>
+        <v>0.1460201563361452</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2326313435040796</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.299746184478956</v>
+        <v>-1.292890676072308</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5101983791425043</v>
+        <v>-0.5531770495502331</v>
       </c>
       <c r="G8" t="n">
-        <v>0.159085877073442</v>
+        <v>0.1772682223679784</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2241419833529237</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8433516908785356</v>
+        <v>-0.8390291830424221</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5840847798444408</v>
+        <v>-0.6401779646436062</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1726364847487536</v>
+        <v>0.1925016011904379</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2001312042425082</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2299806928621139</v>
+        <v>-0.2055570292824146</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5755080752880096</v>
+        <v>-0.6596783485205951</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2238246874655112</v>
+        <v>0.2534607331486993</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1581199583390737</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5188750346837376</v>
+        <v>0.5627545579310232</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7371358347848915</v>
+        <v>-0.8338100918114889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3229514355333125</v>
+        <v>0.3494768857650856</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.09917172006252924</v>
       </c>
       <c r="E12" t="n">
-        <v>1.253060950112445</v>
+        <v>1.30825389199273</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8497430496501784</v>
+        <v>-0.9134639024327551</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4565143050103093</v>
+        <v>0.4743941296491786</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.02709281797493393</v>
       </c>
       <c r="E13" t="n">
-        <v>2.100603672918163</v>
+        <v>2.166585501649444</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8796200140006821</v>
+        <v>-0.9404577717442706</v>
       </c>
       <c r="G13" t="n">
-        <v>0.51239828701735</v>
+        <v>0.5188299005536583</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.05233516418200664</v>
       </c>
       <c r="E14" t="n">
-        <v>2.84323150043374</v>
+        <v>2.930483092925257</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.02770692455308</v>
+        <v>-1.084075183577459</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6512278215380662</v>
+        <v>0.6598283130008906</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1350333882726759</v>
       </c>
       <c r="E15" t="n">
-        <v>3.624885102451041</v>
+        <v>3.71737469371447</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.176986839949198</v>
+        <v>-1.217927155455234</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7505582831119015</v>
+        <v>0.7585244570709079</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2234145942371526</v>
       </c>
       <c r="E16" t="n">
-        <v>4.442047066427262</v>
+        <v>4.520813442463859</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.309842201441167</v>
+        <v>-1.333061271684288</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8425392005309226</v>
+        <v>0.8427057088756749</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3200606528336655</v>
       </c>
       <c r="E17" t="n">
-        <v>5.084898580354301</v>
+        <v>5.145009922571882</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.451040057949696</v>
+        <v>-1.478424886415007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9700906918178904</v>
+        <v>0.9653363601426393</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4268523203168947</v>
       </c>
       <c r="E18" t="n">
-        <v>5.657261561669566</v>
+        <v>5.7189086841512</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.603978277564948</v>
+        <v>-1.613119768668048</v>
       </c>
       <c r="G18" t="n">
-        <v>1.095512340101654</v>
+        <v>1.100034901919741</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5396040665030987</v>
       </c>
       <c r="E19" t="n">
-        <v>6.164159317066757</v>
+        <v>6.23809512134351</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.82568566340422</v>
+        <v>-1.85255876842174</v>
       </c>
       <c r="G19" t="n">
-        <v>1.266579841912566</v>
+        <v>1.265677769231655</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6526618188226129</v>
       </c>
       <c r="E20" t="n">
-        <v>6.624013890666369</v>
+        <v>6.691644334986901</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.03098618303897</v>
+        <v>-2.06340712653219</v>
       </c>
       <c r="G20" t="n">
-        <v>1.410881584745066</v>
+        <v>1.401950516275444</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7608962856913117</v>
       </c>
       <c r="E21" t="n">
-        <v>6.965094951358771</v>
+        <v>7.024617110202614</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.330724380578682</v>
+        <v>-2.347363016640369</v>
       </c>
       <c r="G21" t="n">
-        <v>1.549880067293241</v>
+        <v>1.545357505475154</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8599089079865541</v>
       </c>
       <c r="E22" t="n">
-        <v>7.306266280311332</v>
+        <v>7.351290624668874</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.525977676905361</v>
+        <v>-2.551344277851313</v>
       </c>
       <c r="G22" t="n">
-        <v>1.732214633765719</v>
+        <v>1.7199521785597</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9481848828601351</v>
       </c>
       <c r="E23" t="n">
-        <v>7.54214822267823</v>
+        <v>7.568843230858139</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.755160860479535</v>
+        <v>-2.780187735608538</v>
       </c>
       <c r="G23" t="n">
-        <v>1.880067944698923</v>
+        <v>1.875815577740636</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.024384333826884</v>
       </c>
       <c r="E24" t="n">
-        <v>7.691760544843175</v>
+        <v>7.697923183361037</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.945933069594146</v>
+        <v>-2.970098126806904</v>
       </c>
       <c r="G24" t="n">
-        <v>2.010440319115851</v>
+        <v>1.996190132424309</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.088224592191257</v>
       </c>
       <c r="E25" t="n">
-        <v>7.854078734546135</v>
+        <v>7.861932073179943</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.099461997384829</v>
+        <v>-3.123228471435332</v>
       </c>
       <c r="G25" t="n">
-        <v>2.118243188810393</v>
+        <v>2.10313057428193</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.138637379035326</v>
       </c>
       <c r="E26" t="n">
-        <v>7.972281361699909</v>
+        <v>7.975004047600913</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.186756589284056</v>
+        <v>-3.207535061939171</v>
       </c>
       <c r="G26" t="n">
-        <v>2.157251275612492</v>
+        <v>2.137965583813718</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.173578976955161</v>
       </c>
       <c r="E27" t="n">
-        <v>7.880052816486129</v>
+        <v>7.87576873365265</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.248209147069807</v>
+        <v>-3.256695278405741</v>
       </c>
       <c r="G27" t="n">
-        <v>2.199308965798331</v>
+        <v>2.180577081974044</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.192422483319334</v>
       </c>
       <c r="E28" t="n">
-        <v>7.804031083494896</v>
+        <v>7.786626387063214</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.310369212840585</v>
+        <v>-3.319207878327679</v>
       </c>
       <c r="G28" t="n">
-        <v>2.24201927110829</v>
+        <v>2.232714321263822</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.193844130110498</v>
       </c>
       <c r="E29" t="n">
-        <v>7.818250774152602</v>
+        <v>7.806961142425995</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.338026370888064</v>
+        <v>-3.347904036247999</v>
       </c>
       <c r="G29" t="n">
-        <v>2.18479041400902</v>
+        <v>2.164434921343231</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.178536135101554</v>
       </c>
       <c r="E30" t="n">
-        <v>7.652221827052306</v>
+        <v>7.606787615999989</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.261563970207882</v>
+        <v>-3.264043297758863</v>
       </c>
       <c r="G30" t="n">
-        <v>2.184184152856333</v>
+        <v>2.165004587255313</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.147798616579007</v>
       </c>
       <c r="E31" t="n">
-        <v>7.424718974942572</v>
+        <v>7.365993372502563</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.241202988256002</v>
+        <v>-3.241559486891561</v>
       </c>
       <c r="G31" t="n">
-        <v>2.140259495478968</v>
+        <v>2.129446211800901</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.103064904702722</v>
       </c>
       <c r="E32" t="n">
-        <v>7.178437885037121</v>
+        <v>7.113705783772496</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.199095894495346</v>
+        <v>-3.19869944605546</v>
       </c>
       <c r="G32" t="n">
-        <v>2.051467853278662</v>
+        <v>2.038790652012454</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.047419939771503</v>
       </c>
       <c r="E33" t="n">
-        <v>6.987964537054117</v>
+        <v>6.925435469273905</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.120009615063794</v>
+        <v>-3.115462046497961</v>
       </c>
       <c r="G33" t="n">
-        <v>1.984947464589812</v>
+        <v>1.979349612618618</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9829818113759623</v>
       </c>
       <c r="E34" t="n">
-        <v>6.672633107492663</v>
+        <v>6.584860642743203</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.990423428399195</v>
+        <v>-2.978457394642075</v>
       </c>
       <c r="G34" t="n">
-        <v>1.803689408111794</v>
+        <v>1.796152618309218</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9132111785944534</v>
       </c>
       <c r="E35" t="n">
-        <v>6.413601015919117</v>
+        <v>6.326601930587774</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.936734245947432</v>
+        <v>-2.925487308668198</v>
       </c>
       <c r="G35" t="n">
-        <v>1.755455051232527</v>
+        <v>1.737027517825938</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8417532952449732</v>
       </c>
       <c r="E36" t="n">
-        <v>5.996847096862583</v>
+        <v>5.907680353446077</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.812930107298404</v>
+        <v>-2.800871975519095</v>
       </c>
       <c r="G36" t="n">
-        <v>1.685954590117086</v>
+        <v>1.67054982358446</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7708030472802201</v>
       </c>
       <c r="E37" t="n">
-        <v>5.608090976551492</v>
+        <v>5.530877458557894</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.695036709927741</v>
+        <v>-2.693678416580624</v>
       </c>
       <c r="G37" t="n">
-        <v>1.515296955000949</v>
+        <v>1.496132637416848</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7034468344157343</v>
       </c>
       <c r="E38" t="n">
-        <v>5.268470065959224</v>
+        <v>5.206598492668547</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.603180826247454</v>
+        <v>-2.601550508278506</v>
       </c>
       <c r="G38" t="n">
-        <v>1.462826699021667</v>
+        <v>1.439085536679249</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6402873286408746</v>
       </c>
       <c r="E39" t="n">
-        <v>4.902250514653973</v>
+        <v>4.83415531077776</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.502682976498323</v>
+        <v>-2.506142446576838</v>
       </c>
       <c r="G39" t="n">
-        <v>1.324159403400966</v>
+        <v>1.304687075875108</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5828381972043074</v>
       </c>
       <c r="E40" t="n">
-        <v>4.549783454768038</v>
+        <v>4.479590123763812</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.498988077038583</v>
+        <v>-2.508733389611664</v>
       </c>
       <c r="G40" t="n">
-        <v>1.189692021560352</v>
+        <v>1.170823515504474</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5311514316697334</v>
       </c>
       <c r="E41" t="n">
-        <v>4.1624240528067</v>
+        <v>4.091634219380613</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.375022919330894</v>
+        <v>-2.371844622684359</v>
       </c>
       <c r="G41" t="n">
-        <v>1.14228959648417</v>
+        <v>1.131362257639551</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4842830191557038</v>
       </c>
       <c r="E42" t="n">
-        <v>3.786973961979545</v>
+        <v>3.722670025029997</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.304266021621352</v>
+        <v>-2.308573281440546</v>
       </c>
       <c r="G42" t="n">
-        <v>1.040146180749172</v>
+        <v>1.0170228680523</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4423162454368534</v>
       </c>
       <c r="E43" t="n">
-        <v>3.454382997107475</v>
+        <v>3.400680701361162</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.213313430463328</v>
+        <v>-2.219667584073689</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9075634537997098</v>
+        <v>0.9035227293162539</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4034147952312537</v>
       </c>
       <c r="E44" t="n">
-        <v>3.119873221786357</v>
+        <v>3.063939836204499</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.16069801336298</v>
+        <v>-2.156913455563758</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8966184272554659</v>
+        <v>0.8868694551583249</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3672477235926064</v>
       </c>
       <c r="E45" t="n">
-        <v>2.792471462032059</v>
+        <v>2.750805340920692</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.154817768118451</v>
+        <v>-2.148555102609603</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7869998237062444</v>
+        <v>0.7723355008751909</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3323548599741292</v>
       </c>
       <c r="E46" t="n">
-        <v>2.576105761479746</v>
+        <v>2.528402645509927</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.1389677594918</v>
+        <v>-2.1366909256055</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7152255783078865</v>
+        <v>0.7020336039905027</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2975278300519423</v>
       </c>
       <c r="E47" t="n">
-        <v>2.327299599972557</v>
+        <v>2.287298562308713</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.102934865750878</v>
+        <v>-2.105086055977769</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6731965543938545</v>
+        <v>0.6711417316338903</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2620037210533062</v>
       </c>
       <c r="E48" t="n">
-        <v>2.076325780380206</v>
+        <v>2.025985367404128</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.097918878105302</v>
+        <v>-2.091148758593399</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6186995320057388</v>
+        <v>0.6255129558856914</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2248737710827274</v>
       </c>
       <c r="E49" t="n">
-        <v>1.915433585219482</v>
+        <v>1.866931473163123</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.049801625995971</v>
+        <v>-2.048085919132279</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5655193283587222</v>
+        <v>0.5685305067398273</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1866233790279283</v>
       </c>
       <c r="E50" t="n">
-        <v>1.764911261404829</v>
+        <v>1.713396141205335</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.042965635050979</v>
+        <v>-2.039734275305568</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5331288808993399</v>
+        <v>0.5477346513454255</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1476010016238042</v>
       </c>
       <c r="E51" t="n">
-        <v>1.55084984116927</v>
+        <v>1.495264720293836</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.990012321895712</v>
+        <v>-1.989438386538892</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4517099598395648</v>
+        <v>0.4630672927612904</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1083627479792845</v>
       </c>
       <c r="E52" t="n">
-        <v>1.447421322568365</v>
+        <v>1.393648885944226</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.956058037821148</v>
+        <v>-1.963201428787221</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4075108381576633</v>
+        <v>0.424639240522779</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.06998312231894485</v>
       </c>
       <c r="E53" t="n">
-        <v>1.291054738829112</v>
+        <v>1.233869796018567</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.883079809006889</v>
+        <v>-1.891483906011801</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3649950975435864</v>
+        <v>0.375243594674984</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.03284021912241048</v>
       </c>
       <c r="E54" t="n">
-        <v>1.187744544839495</v>
+        <v>1.134037979648445</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.903258424676422</v>
+        <v>-1.906222029244741</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2841708491436408</v>
+        <v>0.2930287271320528</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.00231462325576138</v>
       </c>
       <c r="E55" t="n">
-        <v>1.177299043329508</v>
+        <v>1.120447117208468</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.936006285652379</v>
+        <v>-1.957565151813393</v>
       </c>
       <c r="G55" t="n">
-        <v>0.233770054020565</v>
+        <v>0.2376643975416013</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.0354456575833632</v>
       </c>
       <c r="E56" t="n">
-        <v>1.093944234041735</v>
+        <v>1.043337285729918</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.931712444088073</v>
+        <v>-1.950002745342393</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1716026692016657</v>
+        <v>0.1850495903619301</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.06620033992386029</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9625990361453941</v>
+        <v>0.9087143741167334</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.879055552381706</v>
+        <v>-1.898031404476691</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1467892663095245</v>
+        <v>0.1569133396228655</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.09456872722582367</v>
       </c>
       <c r="E58" t="n">
-        <v>0.864648215142363</v>
+        <v>0.8098596506707617</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.898731593413598</v>
+        <v>-1.925766327410456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1032201926867037</v>
+        <v>0.1072023647851918</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1210373576586475</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7040066973797827</v>
+        <v>0.653431464943157</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.90681670190457</v>
+        <v>-1.922464216866542</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08238530236899003</v>
+        <v>0.08899745242561571</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1455995672671082</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6079466304746706</v>
+        <v>0.5522578230841891</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.907373559482441</v>
+        <v>-1.933451327937481</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02849881057829911</v>
+        <v>0.0301181499750652</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1685945721222622</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4934004777780016</v>
+        <v>0.4254132298615723</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.903510931836596</v>
+        <v>-1.926726342555657</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01388023179800165</v>
+        <v>0.01086905341689649</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1900339182203241</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3684527378600712</v>
+        <v>0.2918887853872107</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.878907951577933</v>
+        <v>-1.900472307025037</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02624888920796007</v>
+        <v>-0.02308767034037489</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2100156684580254</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2817537335016882</v>
+        <v>0.1991436373602243</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.869709127931219</v>
+        <v>-1.895980851161464</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06607183003419427</v>
+        <v>-0.06070086855475088</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2293446398225881</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1501273621733666</v>
+        <v>0.06011343893685794</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.880308329451746</v>
+        <v>-1.903303558806501</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.07717421611303917</v>
+        <v>-0.08117895527656692</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2482243521482796</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09105715455099392</v>
+        <v>-0.0008560616729081754</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.882779728033929</v>
+        <v>-1.897070169490136</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1247047245313386</v>
+        <v>-0.122215028328853</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2671663583155303</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.06075332173295121</v>
+        <v>-0.1810815224451918</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.855281454322743</v>
+        <v>-1.879567885750174</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1427205614811227</v>
+        <v>-0.1489277242083877</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2862710908798063</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.1491204591422401</v>
+        <v>-0.2666771802993375</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.845342186974457</v>
+        <v>-1.854670313804642</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1680310497248136</v>
+        <v>-0.1722596297767079</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3046147979272725</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.1745413430284224</v>
+        <v>-0.2871485578937094</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.84831616019428</v>
+        <v>-1.863672133072766</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2053075717256247</v>
+        <v>-0.2059815340734313</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3210985404773598</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1536979138212343</v>
+        <v>-0.2407616507443125</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.796372875679709</v>
+        <v>-1.805099010801943</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1858328045170592</v>
+        <v>-0.1871923177055306</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3342519445416596</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2102253621422443</v>
+        <v>-0.308281089501676</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.828119856825122</v>
+        <v>-1.821513196054587</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2230776106426793</v>
+        <v>-0.2291981646338461</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.343152715090662</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1266332937112159</v>
+        <v>-0.2095770164628611</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.828989603710165</v>
+        <v>-1.850376472240335</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2164733895548514</v>
+        <v>-0.2149248009565881</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3469210406963423</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.06668175071094233</v>
+        <v>-0.1273475108236879</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.863341556065969</v>
+        <v>-1.880263195321667</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2223371669411072</v>
+        <v>-0.2198340524837332</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3452884362913333</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1174691595368918</v>
+        <v>0.0676959727901898</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.879681940916726</v>
+        <v>-1.896317527375029</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2028123862370484</v>
+        <v>-0.1860889712012934</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3381315562328205</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2461398552656923</v>
+        <v>0.195304796620772</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.897561765555595</v>
+        <v>-1.914053410734186</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.208105277869868</v>
+        <v>-0.1919869041454471</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3259255400384574</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3919676196314158</v>
+        <v>0.3587629280685747</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.92979790308376</v>
+        <v>-1.950830407700741</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2206806223830595</v>
+        <v>-0.2107248871765009</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3091046010258632</v>
       </c>
       <c r="E76" t="n">
-        <v>0.543119381584473</v>
+        <v>0.5234701770623575</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.992384303407586</v>
+        <v>-2.022443634040437</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1939545082486363</v>
+        <v>-0.1820958205306238</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2881438571276014</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7767196106996559</v>
+        <v>0.7606793068218588</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.977151534505803</v>
+        <v>-1.988359436861725</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1157748759030703</v>
+        <v>-0.09514064948800671</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2630015184341298</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9606106947391954</v>
+        <v>0.958774223581507</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.015576537140931</v>
+        <v>-2.029027727745932</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.06792171944677113</v>
+        <v>-0.05121050282455109</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2342022941144853</v>
       </c>
       <c r="E79" t="n">
-        <v>1.201637318014463</v>
+        <v>1.197220272473453</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.982573729322093</v>
+        <v>-1.994661137293886</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0218580702560508</v>
+        <v>0.01133015344851802</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2019354706297675</v>
       </c>
       <c r="E80" t="n">
-        <v>1.371386171322245</v>
+        <v>1.374272925885293</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.012381772636124</v>
+        <v>-2.014068813228009</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.008947879291324659</v>
+        <v>0.01406320800102607</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1672345305966727</v>
       </c>
       <c r="E81" t="n">
-        <v>1.659841446262795</v>
+        <v>1.675084583816082</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.993322971329101</v>
+        <v>-1.986109439485202</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.006392311655750297</v>
+        <v>0.01702925225205187</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1311886280534853</v>
       </c>
       <c r="E82" t="n">
-        <v>1.898701021373576</v>
+        <v>1.925892504984358</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.920893061203239</v>
+        <v>-1.909369219936761</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07584085350748336</v>
+        <v>0.1109814332983227</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09522690803941979</v>
       </c>
       <c r="E83" t="n">
-        <v>2.160504592502266</v>
+        <v>2.194513769437738</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.877533190372543</v>
+        <v>-1.868239219100256</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09269235188535546</v>
+        <v>0.1236025218622703</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.06089660799783109</v>
       </c>
       <c r="E84" t="n">
-        <v>2.351814751653769</v>
+        <v>2.355765817797743</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.832436875375145</v>
+        <v>-1.813881258626439</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0853446374925716</v>
+        <v>0.1070608631881862</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.02915470839188517</v>
       </c>
       <c r="E85" t="n">
-        <v>2.5406400939682</v>
+        <v>2.564949092460671</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.710636326149234</v>
+        <v>-1.69816832767515</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09476486234494536</v>
+        <v>0.1093547748534357</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.000848724746377854</v>
       </c>
       <c r="E86" t="n">
-        <v>2.705262563987915</v>
+        <v>2.731240305451968</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.540896621651603</v>
+        <v>-1.533118303261035</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06040132149628302</v>
+        <v>0.06873588754404523</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02379040493603749</v>
       </c>
       <c r="E87" t="n">
-        <v>2.809308932234366</v>
+        <v>2.838869347753638</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.358775527415987</v>
+        <v>-1.348925308486506</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1144817680621798</v>
+        <v>0.1160565832495433</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04421786159740494</v>
       </c>
       <c r="E88" t="n">
-        <v>2.919753368379904</v>
+        <v>2.96185497285447</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.190785685339946</v>
+        <v>-1.185461687752612</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06826807838497947</v>
+        <v>0.05802019117425861</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05953225415607252</v>
       </c>
       <c r="E89" t="n">
-        <v>2.875909830452547</v>
+        <v>2.910504531237697</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.010790164662796</v>
+        <v>-1.0032985089903</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07935948589164291</v>
+        <v>0.07147626114467426</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0685667307505201</v>
       </c>
       <c r="E90" t="n">
-        <v>2.850146781066709</v>
+        <v>2.872977331838742</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7983371052518219</v>
+        <v>-0.7873487743395289</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01619305100423029</v>
+        <v>-0.008752094754088533</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.0694561082607696</v>
       </c>
       <c r="E91" t="n">
-        <v>2.80379402947521</v>
+        <v>2.835503805459342</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5370781932874681</v>
+        <v>-0.5200577468821367</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.006613102940733095</v>
+        <v>-0.03194676817014043</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06190230620213358</v>
       </c>
       <c r="E92" t="n">
-        <v>2.712481585117905</v>
+        <v>2.739945093350517</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3172322853536306</v>
+        <v>-0.2989840686260054</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05695778536154804</v>
+        <v>-0.07417279646276198</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04622644208663542</v>
       </c>
       <c r="E93" t="n">
-        <v>2.625199496592551</v>
+        <v>2.65268984133494</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.09077422736316737</v>
+        <v>-0.07147877683356581</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09871417473307359</v>
+        <v>-0.1231305192646518</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02421192587896292</v>
       </c>
       <c r="E94" t="n">
-        <v>2.535286210267706</v>
+        <v>2.561964140668666</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09948686822432883</v>
+        <v>0.120879835961267</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1542681896539937</v>
+        <v>-0.1719754067413433</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.001208081647666325</v>
       </c>
       <c r="E95" t="n">
-        <v>2.323349753669937</v>
+        <v>2.351429281786064</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2049659401404612</v>
+        <v>0.2235270461752581</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1693710454516291</v>
+        <v>-0.1897521547858422</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02591278939732981</v>
       </c>
       <c r="E96" t="n">
-        <v>2.180507551016895</v>
+        <v>2.197076656121433</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2872241120514415</v>
+        <v>0.3024452924603661</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2450249962747815</v>
+        <v>-0.2634897348426521</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.0468248632475717</v>
       </c>
       <c r="E97" t="n">
-        <v>1.988148328301386</v>
+        <v>2.004062988519773</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3870181133396053</v>
+        <v>0.4098450045875781</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2061199860670531</v>
+        <v>-0.2301356127140079</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06309747078574088</v>
       </c>
       <c r="E98" t="n">
-        <v>1.843767295780909</v>
+        <v>1.873047757709553</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4255498520931639</v>
+        <v>0.4500302382958006</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3011096421844724</v>
+        <v>-0.3237218413542299</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07388479205281696</v>
       </c>
       <c r="E99" t="n">
-        <v>1.712216554616504</v>
+        <v>1.729613322079389</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4277443466881033</v>
+        <v>0.4433711243470653</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2786798092970625</v>
+        <v>-0.2948884512816422</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08236444222485219</v>
       </c>
       <c r="E100" t="n">
-        <v>1.495778273503658</v>
+        <v>1.519071144148666</v>
       </c>
       <c r="F100" t="n">
-        <v>0.420804669228064</v>
+        <v>0.4326932430592371</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3948440815491442</v>
+        <v>-0.422081919131359</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09057208959058947</v>
       </c>
       <c r="E101" t="n">
-        <v>1.439504552184175</v>
+        <v>1.468963720871106</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4317948299023872</v>
+        <v>0.4379647874683706</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4094468023918462</v>
+        <v>-0.4289538953962793</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1034489423102808</v>
       </c>
       <c r="E102" t="n">
-        <v>1.319106820514785</v>
+        <v>1.358861450225224</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4357916400971172</v>
+        <v>0.4419914837762612</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4204406225902299</v>
+        <v>-0.4425795233148309</v>
       </c>
     </row>
   </sheetData>
